--- a/ute/ui_config_patch/AB281DB/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281DB/defaultLanguage/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowWidth="7895" windowHeight="4416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10536,7 +10536,7 @@
     <t>"يشير معدل ضربات القلب إلى أن يكون مستيقظًا وليس في حالة نشطة وهادئة ، كل دقيقة أن عدد دقات القلب في الساعة هو مقياس للقلب أحد المؤشرات المهمة للصحة القذرة التي يمكنك اختيارها للهدوء بعد الاستيقاظ في قياس الصباح في الحالة المثالية ، فإن معدل ضربات القلب هو 50 إلى 80 ضربة في الدقيقة".</t>
   </si>
   <si>
-    <t>Пульс в состоянии покоя — ключевой показатель здоровья сердца, означает среднее количество сердечных сокращений в минуту, измеренное, когда вы были неактивны и расслаблены. Лучше всего измерять утром, сразу после пробуждения. Нормальная частота сердечных сокращений колеблется от 50 до 80 ударов в минуту.</t>
+    <t>Пульс в состоянии покоя - ключевой показатель здоровья сердца, означает среднее количество сердечных сокращений в минуту, измеренное, когда вы были неактивны и расслаблены. Лучше всего измерять утром, сразу после пробуждения. Нормальная частота сердечных сокращений колеблется от 50 до 80 ударов в минуту.</t>
   </si>
   <si>
     <t>Kalp sağlığının önemli bir göstergesi olan dinlenme kalp atış hızı (RHR), hareketsiz olduğunuzda ve rahat olduğunuzda ölçülen dakika başına ortalama kalp atımını ifade eder. RHR'nizi sabah uyandıktan hemen sonra ölçmek en iyisidir. RHR dakikada 50 ila 80 atım arasında değişir.</t>
@@ -20171,7 +20171,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F248" sqref="F248"/>
+      <selection pane="bottomRight" activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
